--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA_Workplace\visual-data-management-system\skye-VDMS-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67D39C4-234F-4CB1-BA8C-870F2B73BA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F923B17-36AC-42BE-9CC4-3C431C5498F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="18816" windowHeight="12240" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-672" yWindow="2736" windowWidth="18816" windowHeight="11136" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,44 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>日期</t>
+    <t>年级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户数</t>
+    <t>数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
+    <t>大一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2号</t>
+    <t>大二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3号</t>
+    <t>大三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5号</t>
+    <t>大四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -483,11 +468,11 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -497,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -505,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -513,15 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>180</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
